--- a/DOC/教育資料/Net/Visual Studio インストール.xlsx
+++ b/DOC/教育資料/Net/Visual Studio インストール.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B59F41-0390-423F-9465-2F9D42591834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7BA292-275E-4D41-A093-8C94D37EFAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C9D31035-2D3D-46B5-A1E0-AFE96FED01C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{C9D31035-2D3D-46B5-A1E0-AFE96FED01C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Visual Studio のインストール" sheetId="3" r:id="rId1"/>
     <sheet name="MYSQLと接続" sheetId="4" r:id="rId2"/>
+    <sheet name=" Crystal Reportsのインストール" sheetId="5" r:id="rId3"/>
+    <sheet name="DataSetの使い" sheetId="7" r:id="rId4"/>
+    <sheet name=" Crystal Reportsの使い" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>https://my.visualstudio.com/downloads</t>
     <phoneticPr fontId="2"/>
@@ -164,6 +167,191 @@
     <t>参考URL：</t>
     <rPh sb="0" eb="2">
       <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.petitmonte.com/database/mysql_authentication_plugin.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://origin.softwaredownloads.sap.com/public/site/index.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crystal Reports ダウンロード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２、インストール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インストール完了したら、WinFormを起動</t>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>３、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>４、配置</t>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「WinForm１」⇒　右クリック　⇒　プロパティ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「コンパイル」一番下の「詳細コンパイル　オプション」</t>
+    <rPh sb="7" eb="9">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配置完了</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;startup useLegacyV2RuntimeActivationPolicy="true"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    　&lt;supportedRuntime version="v4.0" sku=".NETFramework,Version=v4.0" /&gt;　　　　　　　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/startup&gt;</t>
+  </si>
+  <si>
+    <t>app.Configファイルに以下のソースを追加</t>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>任意エリア、右click　⇒　追加　⇒　DataTable</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加された「dtuser」にて、右click　⇒　列</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>列を追加</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１、 Crystal Reportsの追加</t>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２、空のレポートを選択</t>
+    <rPh sb="2" eb="3">
+      <t>クウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レポートに項目を追加</t>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>列を選択し、Reportに移動</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1、URL：https://balard.sakura.ne.jp/vb/net/index.php</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２、プログラム　⇒　User　Form　⇒　Button3のイベント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DataSetの追加</t>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1574,6 +1762,4723 @@
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>655599</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>37233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846EB0C5-BD7E-F85A-003C-629461220B2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="485775"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0BE3181-2F44-C548-63EC-D0AD3B8F3125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="5886450"/>
+          <a:ext cx="4114800" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FEE7FC-10B2-4A36-850F-43B46220A9B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12277724" y="2295525"/>
+          <a:ext cx="400051" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6ACD5A3-476A-4E8C-98B6-315C9B494165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="2714624"/>
+          <a:ext cx="6143625" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="对话气泡: 圆角矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81291669-4D48-728B-285B-B91B12DDCA92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="1447800"/>
+          <a:ext cx="3228975" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -17293"/>
+            <a:gd name="adj2" fmla="val 155899"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SAP Crystal Reports ,version for  Visual Studio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」を選択し、右の「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Go</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」ボタンを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>click</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="对话气泡: 圆角矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BBD2288-DEC2-449F-84F9-4F1059B1DF3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6010275" y="4391025"/>
+          <a:ext cx="3228975" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -17293"/>
+            <a:gd name="adj2" fmla="val 155899"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>click</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>して、ダウンロード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>370143</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>18452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D46C0B4-A408-2485-C1A5-73231CC163C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8096250"/>
+          <a:ext cx="10657143" cy="4780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5EDBF45-FBDA-4B9E-A803-BDABEED237F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="10944225"/>
+          <a:ext cx="6286500" cy="295276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="对话气泡: 圆角矩形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4937B4-9CE7-4F23-A669-A3DB5A7A34F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="9505950"/>
+          <a:ext cx="3228975" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -17293"/>
+            <a:gd name="adj2" fmla="val 155899"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>インストール媒体を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>double-click</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>して、インストール開始</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>637577</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>75617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96DB043-A93C-41DE-A096-2D9E6578799C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="15411450"/>
+          <a:ext cx="4780952" cy="4666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609184</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F966DD70-BDFD-416B-9FB5-37E20BE02DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="13296900"/>
+          <a:ext cx="3323809" cy="1819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647102</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>104192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E12D277E-1A78-4160-B57E-A8A6309C6849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="20202525"/>
+          <a:ext cx="4780952" cy="4666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666152</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>142292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE12D3E7-2434-47C1-B295-290F8CB641C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="25003125"/>
+          <a:ext cx="4780952" cy="4666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>170536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F78890-6FFD-E122-78FF-EB97ED837D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="51435000"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E357E087-98B4-45A0-BFA2-00C0F5E5A102}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10734675" y="52463700"/>
+          <a:ext cx="809625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矩形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCB980D-E8D5-4F32-9010-034B2AB91611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="55559325"/>
+          <a:ext cx="2924175" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>646074</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>18136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C4DB69-E665-77C7-E298-BCA0F0A0C0CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="59378850"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B5DF4D-2A05-443A-8E2E-3581AE00C096}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990851" y="60788550"/>
+          <a:ext cx="971550" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE30B33-91F9-4788-BFD0-7136F3FE1F98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133849" y="65084325"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>132562</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>151815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1C7354-8848-86FE-73CC-B30704719DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="66913125"/>
+          <a:ext cx="6304762" cy="4676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B45CE6CF-8BD6-46A2-9906-5F0A2C961E6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="70589774"/>
+          <a:ext cx="6010275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="对话气泡: 圆角矩形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0867E8-6A28-4272-9DC0-94A808D6BFD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="69446775"/>
+          <a:ext cx="4800600" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -35119"/>
+            <a:gd name="adj2" fmla="val 103290"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.NET Framework</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> 4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」を選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>27708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2EDA10-8774-F08D-5ED4-841594DAA8EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="72628125"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矩形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7828E2A5-BBCE-4FED-A714-F18CDC313997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10791825" y="75323701"/>
+          <a:ext cx="1828800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矩形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC89E3C-D3EE-4B4A-9713-AD9147D91A4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="78847950"/>
+          <a:ext cx="5981700" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>27708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D02763-3579-4E60-25F2-44616CD47F21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>37186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9329C0-9BD2-195A-298E-45F93922F0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7724775"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>27708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F930FA6C-A617-E40C-D718-CD6472202529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="15240000"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>655599</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>151486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62588C2E-7F6B-602A-607A-3AA9F8084E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="22602825"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51F66C0-DDD1-490C-B50C-B1BE07FF0F8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3943350" y="10734674"/>
+          <a:ext cx="2867025" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFE0C07-B059-4BBF-AB44-D5E91A69EF03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838951" y="11001374"/>
+          <a:ext cx="1885950" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6469B574-D006-49FF-BBD9-FBC0B11AF93E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496300" y="26727150"/>
+          <a:ext cx="2190750" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>122958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB1FB95-0467-11A7-DF1D-F30B129E35A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="30337125"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>170536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7BEB709-5885-4FF6-BC11-812A0178F313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="30241875"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="对话气泡: 圆角矩形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CEADD0-7355-4AE9-A910-49C32DE184BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="30194250"/>
+          <a:ext cx="4800600" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 43254"/>
+            <a:gd name="adj2" fmla="val 103290"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>WinForm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１」⇒　右クリック　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>⇒　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>追加　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　⇒　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>新しい項目</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59380FD4-F5EE-49A0-966F-B53B088D432F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10487025" y="31337250"/>
+          <a:ext cx="1838325" cy="295276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9612AA-A54C-477F-9A9B-88934BCA9B55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="32385000"/>
+          <a:ext cx="5667375" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>170536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F02118-F220-441D-9885-E49BC286AB92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="43576875"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFBB9B5-06DE-46EA-89C4-D02702D6F772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="45577125"/>
+          <a:ext cx="1809750" cy="228599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110CE2E8-034A-4EC0-9768-4484B25574F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="47644050"/>
+          <a:ext cx="4381500" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA7CDBB-0A0C-46FC-A52B-31D35B569F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="49406175"/>
+          <a:ext cx="809625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65555</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>189815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9407D93-2E7E-40DF-94A3-D81C04065CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="7810500"/>
+          <a:ext cx="8961905" cy="5476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>218161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649150A7-24E9-42F4-80BE-6E3568007466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="285750"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="对话气泡: 圆角矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A49497-DD9B-4022-9DA6-47CD1E81F41B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="238125"/>
+          <a:ext cx="4800600" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 43254"/>
+            <a:gd name="adj2" fmla="val 103290"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>WinForm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１」⇒　右クリック　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>⇒　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>追加　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　⇒　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>新しい項目</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E713E1-E869-4656-92BA-6E38FE998404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10487025" y="1381125"/>
+          <a:ext cx="1838325" cy="295276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F609BF39-CC20-4AAC-A8D9-C6081AB59E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="2428875"/>
+          <a:ext cx="5667375" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEADF5B1-C104-45ED-A3FA-A091EE12B9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="8467724"/>
+          <a:ext cx="4400550" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3009441-2BEA-4F71-B440-4205F98C2AB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="9496426"/>
+          <a:ext cx="1809750" cy="228599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>218533</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>27976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F777C7-9DC5-46DC-B3AA-F4F34B153DC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="13573125"/>
+          <a:ext cx="4333333" cy="4790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>27708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1593190-88CD-3872-B184-597DB572A97F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="18811875"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A6611F-38E5-4F1D-850C-A84A5FEDE243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="19897725"/>
+          <a:ext cx="2190750" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="对话气泡: 圆角矩形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09010D90-DE7E-469A-9B94-158EDAD9C94F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="18754725"/>
+          <a:ext cx="4800600" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -35119"/>
+            <a:gd name="adj2" fmla="val 103290"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>右</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>click</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>170536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1207ECC7-2509-3B73-4D18-38AFA344A667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="25955625"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E32CAD-B6F4-48F7-AC1D-30488105FB8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="27203400"/>
+          <a:ext cx="2190750" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>170659</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>199224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36DEE137-90A6-9AFD-B6DC-2B461E5A4977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="33794700"/>
+          <a:ext cx="6323809" cy="6409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矩形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B20DFF-FE4F-49E9-BB53-9B5425A1B128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="35509200"/>
+          <a:ext cx="2190750" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E4EF5D-48C2-48A5-9666-85BFAC5710A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="36090225"/>
+          <a:ext cx="2190750" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="对话气泡: 圆角矩形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B234A7CE-EA90-4F7E-93BE-F7D13F35DCA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="34366200"/>
+          <a:ext cx="4800600" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -35119"/>
+            <a:gd name="adj2" fmla="val 103290"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>追加された</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DataSet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を選択　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="八边形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7155CA67-84D5-9DE4-3D74-2B66E330BACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="35242500"/>
+          <a:ext cx="390525" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="octagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="八边形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30458324-339B-4085-BBCF-185F4B1AC0EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="36175950"/>
+          <a:ext cx="390525" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="octagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="八边形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EB083E-5FB4-4495-AD88-1D4598291CE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="35699700"/>
+          <a:ext cx="390525" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="octagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>３２１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC60375C-DF0C-4183-86E0-643EE7FDD312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="36090224"/>
+          <a:ext cx="571500" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="对话气泡: 圆角矩形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1918FE9A-432A-4BCD-A70D-F8F6AF5E14A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="35213925"/>
+          <a:ext cx="4800600" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61508"/>
+            <a:gd name="adj2" fmla="val 92764"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DataSet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を選択、右ボタンを選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>227809</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>8724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763EAA08-33CA-80C0-849C-7C37D5088919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="40986075"/>
+          <a:ext cx="6323809" cy="6409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="箭头: 下 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B47F5A-553C-EEDF-4603-A2ED38CFDF1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="40176450"/>
+          <a:ext cx="552450" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E68DBE7-C3C5-47FF-887F-C1D7034CF7B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3914774" y="46901100"/>
+          <a:ext cx="1019175" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>36474</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>170583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FF136F-2E14-908D-595F-449891753B0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="48006000"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="矩形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E1651A-7C56-DC38-E444-92325CB03DC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="49158525"/>
+          <a:ext cx="1638300" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>170536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2302F6B-DBA9-7668-B34E-DDC61B280946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="55483125"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>27708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB04739-0A81-AEA4-6504-E2D7741529AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="63103125"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="矩形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126D7FD7-8656-4437-8FD4-66154EACF1CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="56911876"/>
+          <a:ext cx="1638300" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4634DFDA-C5D7-ABE3-C368-A8A9A5FEC8B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="57083325"/>
+          <a:ext cx="1228725" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CEB9E10-DF8F-499F-B227-621AC4F570DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105150" y="58159650"/>
+          <a:ext cx="7600950" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="对话气泡: 圆角矩形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E108139-0670-458B-9A59-9D1B72C86325}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="56940450"/>
+          <a:ext cx="4800600" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -60119"/>
+            <a:gd name="adj2" fmla="val 119080"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>詳細に移動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>208324</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>94613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0CD6FA-14ED-59AD-9075-0AC6BBB90892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="71199375"/>
+          <a:ext cx="9809524" cy="5095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>332390</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>199315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88E3EDD-FE64-3763-114D-73CF6B9CB088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="76438125"/>
+          <a:ext cx="7876190" cy="5676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9540D4-3F40-4453-9271-F76A938DED14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="71789925"/>
+          <a:ext cx="876300" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1906,8 +6811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F36BAE-895E-4EFA-9C2F-63D1102142B3}">
   <dimension ref="A1:G214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1993,8 +6898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA4913D-6828-414E-BFAF-AED2AF129C98}">
   <dimension ref="A2:B123"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2034,7 +6939,9 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
@@ -2210,9 +7117,177 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{82AB5432-C127-400E-91FD-C1A26B037C26}"/>
     <hyperlink ref="B22" r:id="rId2" xr:uid="{D31500CE-9EB6-421E-97AC-099E95CF564D}"/>
+    <hyperlink ref="B23" r:id="rId3" xr:uid="{5FCDFDE2-5577-4F87-A7E3-7C420EA9E199}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A910CC-2955-4B13-BAA4-14B09D886249}">
+  <dimension ref="A1:B221"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>29</v>
+      </c>
+      <c r="B127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B162" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B216" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A218" t="s">
+        <v>34</v>
+      </c>
+      <c r="B218" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B219" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B220" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B221" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{031DF05B-766C-4984-95EB-A79D1C7496BB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE0B7AC-2725-48CB-B2C8-B83CEF795D24}">
+  <dimension ref="B34:B193"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B161" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B193" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3361C7F7-72D8-4FA9-8248-075F64C41389}">
+  <dimension ref="A1:C298"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="Q336" sqref="Q336"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B201" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B233" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B297" t="s">
+        <v>46</v>
+      </c>
+      <c r="C297" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C298" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>